--- a/premise/data/additional_inventories/lci-batteries-NMC622-LTO.xlsx
+++ b/premise/data/additional_inventories/lci-batteries-NMC622-LTO.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D315CE-FCF1-6C43-94B6-BC453CDB0427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183EB698-3661-8B42-8EB6-22FAE3841606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12240" yWindow="1780" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Battery - NMC" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Battery - NMC'!$A$1:$O$603</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Battery - NMC'!$A$1:$O$620</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2428" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2485" uniqueCount="285">
   <si>
     <t>Activity</t>
   </si>
@@ -894,6 +894,15 @@
   </si>
   <si>
     <t>battery cell, Li-ion, LTO</t>
+  </si>
+  <si>
+    <t>market for battery, Li-ion, LTO</t>
+  </si>
+  <si>
+    <t>battery, Li-ion, LTO</t>
+  </si>
+  <si>
+    <t>Market structure adapted from ecoinvent's "market for battery, Li-ion, NMC811". Battery inventory source: Additional Emissions and Cost from Storing Electricity in Stationary Battery Systems. Schmidt et al. 2019. https://doi.org/10.1021/acs.est.8b05313. Specific energy at cell, updated LCI, excluding BMS and cooling: 60 Wh/kg cell</t>
   </si>
 </sst>
 </file>
@@ -904,9 +913,16 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -969,19 +985,20 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1265,10 +1282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N668"/>
+  <dimension ref="A1:N685"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A641" workbookViewId="0">
-      <selection activeCell="B669" sqref="B669"/>
+    <sheetView tabSelected="1" topLeftCell="A515" workbookViewId="0">
+      <selection activeCell="B543" sqref="B543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9128,7 +9145,7 @@
         <v>0</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
     </row>
     <row r="535" spans="1:9" x14ac:dyDescent="0.2">
@@ -9136,7 +9153,7 @@
         <v>1</v>
       </c>
       <c r="B535" t="s">
-        <v>2</v>
+        <v>284</v>
       </c>
     </row>
     <row r="536" spans="1:9" x14ac:dyDescent="0.2">
@@ -9144,7 +9161,7 @@
         <v>3</v>
       </c>
       <c r="B536" t="s">
-        <v>202</v>
+        <v>4</v>
       </c>
     </row>
     <row r="537" spans="1:9" x14ac:dyDescent="0.2">
@@ -9155,12 +9172,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>6</v>
       </c>
-      <c r="B538" t="s">
-        <v>248</v>
+      <c r="B538" s="10" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="539" spans="1:9" x14ac:dyDescent="0.2">
@@ -9173,10 +9190,10 @@
     </row>
     <row r="540" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>207</v>
+        <v>9</v>
       </c>
       <c r="B540" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
     </row>
     <row r="541" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -9192,289 +9209,282 @@
         <v>12</v>
       </c>
       <c r="C542" t="s">
+        <v>7</v>
+      </c>
+      <c r="D542" t="s">
         <v>199</v>
       </c>
-      <c r="D542" t="s">
+      <c r="E542" t="s">
+        <v>131</v>
+      </c>
+      <c r="F542" t="s">
         <v>3</v>
       </c>
-      <c r="E542" t="s">
+      <c r="G542" t="s">
+        <v>13</v>
+      </c>
+      <c r="H542" t="s">
+        <v>200</v>
+      </c>
+      <c r="I542" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="543" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A543" s="7" t="str">
+        <f>B534</f>
+        <v>market for battery, Li-ion, LTO</v>
+      </c>
+      <c r="B543">
+        <v>1</v>
+      </c>
+      <c r="C543" t="s">
+        <v>8</v>
+      </c>
+      <c r="D543" t="s">
+        <v>201</v>
+      </c>
+      <c r="F543" t="s">
+        <v>4</v>
+      </c>
+      <c r="G543" t="s">
+        <v>14</v>
+      </c>
+      <c r="I543" s="9" t="str">
+        <f>B538</f>
+        <v>battery, Li-ion, LTO</v>
+      </c>
+    </row>
+    <row r="544" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A544" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B544">
+        <v>0.75</v>
+      </c>
+      <c r="C544" t="s">
+        <v>8</v>
+      </c>
+      <c r="F544" t="s">
+        <v>4</v>
+      </c>
+      <c r="G544" t="s">
+        <v>16</v>
+      </c>
+      <c r="I544" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="545" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A545" t="s">
+        <v>276</v>
+      </c>
+      <c r="B545">
+        <v>0.25</v>
+      </c>
+      <c r="C545" t="s">
+        <v>8</v>
+      </c>
+      <c r="F545" t="s">
+        <v>4</v>
+      </c>
+      <c r="G545" t="s">
+        <v>16</v>
+      </c>
+      <c r="I545" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="546" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A546" t="s">
+        <v>59</v>
+      </c>
+      <c r="B546">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="C546" t="s">
+        <v>53</v>
+      </c>
+      <c r="F546" t="s">
+        <v>4</v>
+      </c>
+      <c r="G546" t="s">
+        <v>16</v>
+      </c>
+      <c r="I546" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="547" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A547" t="s">
+        <v>57</v>
+      </c>
+      <c r="B547">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="C547" t="s">
+        <v>53</v>
+      </c>
+      <c r="F547" t="s">
+        <v>4</v>
+      </c>
+      <c r="G547" t="s">
+        <v>16</v>
+      </c>
+      <c r="I547" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="548" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A548" t="s">
+        <v>277</v>
+      </c>
+      <c r="B548">
+        <v>0.31</v>
+      </c>
+      <c r="C548" t="s">
+        <v>53</v>
+      </c>
+      <c r="F548" t="s">
+        <v>4</v>
+      </c>
+      <c r="G548" t="s">
+        <v>16</v>
+      </c>
+      <c r="I548" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="549" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A549" t="s">
+        <v>61</v>
+      </c>
+      <c r="B549">
+        <v>0.73680000000000001</v>
+      </c>
+      <c r="C549" t="s">
+        <v>53</v>
+      </c>
+      <c r="F549" t="s">
+        <v>4</v>
+      </c>
+      <c r="G549" t="s">
+        <v>16</v>
+      </c>
+      <c r="I549" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="551" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A551" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B551" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="552" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A552" t="s">
+        <v>1</v>
+      </c>
+      <c r="B552" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="553" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A553" t="s">
+        <v>3</v>
+      </c>
+      <c r="B553" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="554" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A554" t="s">
+        <v>5</v>
+      </c>
+      <c r="B554">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A555" t="s">
+        <v>6</v>
+      </c>
+      <c r="B555" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="556" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A556" t="s">
         <v>7</v>
       </c>
-      <c r="F542" t="s">
+      <c r="B556" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="557" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A557" t="s">
+        <v>207</v>
+      </c>
+      <c r="B557" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="558" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A558" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="559" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A559" t="s">
+        <v>11</v>
+      </c>
+      <c r="B559" t="s">
+        <v>12</v>
+      </c>
+      <c r="C559" t="s">
+        <v>199</v>
+      </c>
+      <c r="D559" t="s">
+        <v>3</v>
+      </c>
+      <c r="E559" t="s">
+        <v>7</v>
+      </c>
+      <c r="F559" t="s">
         <v>13</v>
       </c>
-      <c r="G542" t="s">
+      <c r="G559" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A543" t="s">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A560" t="s">
         <v>248</v>
       </c>
-      <c r="B543">
-        <v>1</v>
-      </c>
-      <c r="C543" t="s">
+      <c r="B560">
+        <v>1</v>
+      </c>
+      <c r="C560" t="s">
         <v>201</v>
       </c>
-      <c r="D543" t="s">
+      <c r="D560" t="s">
         <v>202</v>
       </c>
-      <c r="E543" t="s">
-        <v>8</v>
-      </c>
-      <c r="F543" t="s">
+      <c r="E560" t="s">
+        <v>8</v>
+      </c>
+      <c r="F560" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A544" t="s">
-        <v>41</v>
-      </c>
-      <c r="B544">
-        <v>1</v>
-      </c>
-      <c r="C544" t="s">
-        <v>209</v>
-      </c>
-      <c r="D544" t="s">
-        <v>4</v>
-      </c>
-      <c r="E544" t="s">
-        <v>8</v>
-      </c>
-      <c r="F544" t="s">
-        <v>16</v>
-      </c>
-      <c r="G544" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A545" t="s">
-        <v>43</v>
-      </c>
-      <c r="B545">
-        <v>1</v>
-      </c>
-      <c r="C545" t="s">
-        <v>209</v>
-      </c>
-      <c r="D545" t="s">
-        <v>4</v>
-      </c>
-      <c r="E545" t="s">
-        <v>8</v>
-      </c>
-      <c r="F545" t="s">
-        <v>16</v>
-      </c>
-      <c r="G545" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="547" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A547" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B547" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A548" t="s">
-        <v>1</v>
-      </c>
-      <c r="B548" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A549" t="s">
-        <v>3</v>
-      </c>
-      <c r="B549" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A550" t="s">
-        <v>5</v>
-      </c>
-      <c r="B550">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A551" t="s">
-        <v>6</v>
-      </c>
-      <c r="B551" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A552" t="s">
-        <v>7</v>
-      </c>
-      <c r="B552" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A553" t="s">
-        <v>207</v>
-      </c>
-      <c r="B553" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="554" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A554" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A555" t="s">
-        <v>11</v>
-      </c>
-      <c r="B555" t="s">
-        <v>12</v>
-      </c>
-      <c r="C555" t="s">
-        <v>199</v>
-      </c>
-      <c r="D555" t="s">
-        <v>3</v>
-      </c>
-      <c r="E555" t="s">
-        <v>7</v>
-      </c>
-      <c r="F555" t="s">
-        <v>13</v>
-      </c>
-      <c r="G555" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A556" t="s">
-        <v>246</v>
-      </c>
-      <c r="B556">
-        <v>1</v>
-      </c>
-      <c r="C556" t="s">
-        <v>201</v>
-      </c>
-      <c r="D556" t="s">
-        <v>202</v>
-      </c>
-      <c r="E556" t="s">
-        <v>8</v>
-      </c>
-      <c r="F556" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A557" t="s">
-        <v>250</v>
-      </c>
-      <c r="B557">
-        <v>0.80804607581879118</v>
-      </c>
-      <c r="C557" t="s">
-        <v>209</v>
-      </c>
-      <c r="D557" t="s">
-        <v>4</v>
-      </c>
-      <c r="E557" t="s">
-        <v>8</v>
-      </c>
-      <c r="F557" t="s">
-        <v>16</v>
-      </c>
-      <c r="G557" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A558" t="s">
-        <v>125</v>
-      </c>
-      <c r="B558">
-        <v>1.7192469698272154E-2</v>
-      </c>
-      <c r="C558" t="s">
-        <v>209</v>
-      </c>
-      <c r="D558" t="s">
-        <v>4</v>
-      </c>
-      <c r="E558" t="s">
-        <v>8</v>
-      </c>
-      <c r="F558" t="s">
-        <v>16</v>
-      </c>
-      <c r="G558" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A559" t="s">
-        <v>155</v>
-      </c>
-      <c r="B559">
-        <v>1.167177665071587E-2</v>
-      </c>
-      <c r="C559" t="s">
-        <v>209</v>
-      </c>
-      <c r="D559" t="s">
-        <v>4</v>
-      </c>
-      <c r="E559" t="s">
-        <v>8</v>
-      </c>
-      <c r="F559" t="s">
-        <v>16</v>
-      </c>
-      <c r="G559" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A560" t="s">
-        <v>115</v>
-      </c>
-      <c r="B560">
-        <v>1.7192469698272154E-2</v>
-      </c>
-      <c r="C560" t="s">
-        <v>209</v>
-      </c>
-      <c r="D560" t="s">
-        <v>4</v>
-      </c>
-      <c r="E560" t="s">
-        <v>8</v>
-      </c>
-      <c r="F560" t="s">
-        <v>16</v>
-      </c>
-      <c r="G560" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="B561">
-        <v>8.9782897313199023E-2</v>
+        <v>1</v>
       </c>
       <c r="C561" t="s">
         <v>209</v>
@@ -9489,21 +9499,21 @@
         <v>16</v>
       </c>
       <c r="G561" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>210</v>
+        <v>43</v>
       </c>
       <c r="B562">
-        <v>5.6114310820749393E-2</v>
+        <v>1</v>
       </c>
       <c r="C562" t="s">
         <v>209</v>
       </c>
       <c r="D562" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="E562" t="s">
         <v>8</v>
@@ -9512,7 +9522,7 @@
         <v>16</v>
       </c>
       <c r="G562" t="s">
-        <v>212</v>
+        <v>44</v>
       </c>
     </row>
     <row r="564" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -9520,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.2">
@@ -9552,7 +9562,7 @@
         <v>6</v>
       </c>
       <c r="B568" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.2">
@@ -9601,7 +9611,7 @@
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B573">
         <v>1</v>
@@ -9621,16 +9631,16 @@
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="B574">
-        <v>1</v>
+        <v>0.80804607581879118</v>
       </c>
       <c r="C574" t="s">
         <v>209</v>
       </c>
       <c r="D574" t="s">
-        <v>214</v>
+        <v>4</v>
       </c>
       <c r="E574" t="s">
         <v>8</v>
@@ -9639,15 +9649,15 @@
         <v>16</v>
       </c>
       <c r="G574" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="B575">
-        <v>1</v>
+        <v>1.7192469698272154E-2</v>
       </c>
       <c r="C575" t="s">
         <v>209</v>
@@ -9662,1046 +9672,1064 @@
         <v>16</v>
       </c>
       <c r="G575" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="577" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A577" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B577" s="2" t="s">
-        <v>249</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="576" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A576" t="s">
+        <v>155</v>
+      </c>
+      <c r="B576">
+        <v>1.167177665071587E-2</v>
+      </c>
+      <c r="C576" t="s">
+        <v>209</v>
+      </c>
+      <c r="D576" t="s">
+        <v>4</v>
+      </c>
+      <c r="E576" t="s">
+        <v>8</v>
+      </c>
+      <c r="F576" t="s">
+        <v>16</v>
+      </c>
+      <c r="G576" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A577" t="s">
+        <v>115</v>
+      </c>
+      <c r="B577">
+        <v>1.7192469698272154E-2</v>
+      </c>
+      <c r="C577" t="s">
+        <v>209</v>
+      </c>
+      <c r="D577" t="s">
+        <v>4</v>
+      </c>
+      <c r="E577" t="s">
+        <v>8</v>
+      </c>
+      <c r="F577" t="s">
+        <v>16</v>
+      </c>
+      <c r="G577" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>1</v>
-      </c>
-      <c r="B578" t="s">
-        <v>2</v>
+        <v>127</v>
+      </c>
+      <c r="B578">
+        <v>8.9782897313199023E-2</v>
+      </c>
+      <c r="C578" t="s">
+        <v>209</v>
+      </c>
+      <c r="D578" t="s">
+        <v>4</v>
+      </c>
+      <c r="E578" t="s">
+        <v>8</v>
+      </c>
+      <c r="F578" t="s">
+        <v>16</v>
+      </c>
+      <c r="G578" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
-        <v>3</v>
-      </c>
-      <c r="B579" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A580" t="s">
-        <v>5</v>
-      </c>
-      <c r="B580">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A581" t="s">
-        <v>6</v>
-      </c>
-      <c r="B581" t="s">
-        <v>249</v>
+        <v>210</v>
+      </c>
+      <c r="B579">
+        <v>5.6114310820749393E-2</v>
+      </c>
+      <c r="C579" t="s">
+        <v>209</v>
+      </c>
+      <c r="D579" t="s">
+        <v>96</v>
+      </c>
+      <c r="E579" t="s">
+        <v>8</v>
+      </c>
+      <c r="F579" t="s">
+        <v>16</v>
+      </c>
+      <c r="G579" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="581" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A581" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B581" s="2" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B582" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
-        <v>207</v>
+        <v>3</v>
       </c>
       <c r="B583" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="584" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A584" s="2" t="s">
-        <v>10</v>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="584" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A584" t="s">
+        <v>5</v>
+      </c>
+      <c r="B584">
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B585" t="s">
-        <v>12</v>
-      </c>
-      <c r="C585" t="s">
-        <v>199</v>
-      </c>
-      <c r="D585" t="s">
-        <v>3</v>
-      </c>
-      <c r="E585" t="s">
-        <v>7</v>
-      </c>
-      <c r="F585" t="s">
-        <v>13</v>
-      </c>
-      <c r="G585" t="s">
-        <v>6</v>
+        <v>247</v>
       </c>
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>249</v>
-      </c>
-      <c r="B586">
-        <v>1</v>
-      </c>
-      <c r="C586" t="s">
-        <v>201</v>
-      </c>
-      <c r="D586" t="s">
-        <v>202</v>
-      </c>
-      <c r="E586" t="s">
-        <v>8</v>
-      </c>
-      <c r="F586" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="B586" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>164</v>
-      </c>
-      <c r="B587">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="C587" t="s">
-        <v>209</v>
-      </c>
-      <c r="D587" t="s">
-        <v>4</v>
-      </c>
-      <c r="E587" t="s">
-        <v>8</v>
-      </c>
-      <c r="F587" t="s">
-        <v>16</v>
-      </c>
-      <c r="G587" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A588" t="s">
-        <v>166</v>
-      </c>
-      <c r="B588">
-        <v>0.106</v>
-      </c>
-      <c r="C588" t="s">
-        <v>209</v>
-      </c>
-      <c r="D588" t="s">
-        <v>4</v>
-      </c>
-      <c r="E588" t="s">
-        <v>8</v>
-      </c>
-      <c r="F588" t="s">
-        <v>16</v>
-      </c>
-      <c r="G588" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="590" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A590" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B590" s="2" t="s">
-        <v>250</v>
+        <v>207</v>
+      </c>
+      <c r="B587" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="588" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A588" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="589" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A589" t="s">
+        <v>11</v>
+      </c>
+      <c r="B589" t="s">
+        <v>12</v>
+      </c>
+      <c r="C589" t="s">
+        <v>199</v>
+      </c>
+      <c r="D589" t="s">
+        <v>3</v>
+      </c>
+      <c r="E589" t="s">
+        <v>7</v>
+      </c>
+      <c r="F589" t="s">
+        <v>13</v>
+      </c>
+      <c r="G589" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="590" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A590" t="s">
+        <v>247</v>
+      </c>
+      <c r="B590">
+        <v>1</v>
+      </c>
+      <c r="C590" t="s">
+        <v>201</v>
+      </c>
+      <c r="D590" t="s">
+        <v>202</v>
+      </c>
+      <c r="E590" t="s">
+        <v>8</v>
+      </c>
+      <c r="F590" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>5</v>
+        <v>213</v>
       </c>
       <c r="B591">
         <v>1</v>
+      </c>
+      <c r="C591" t="s">
+        <v>209</v>
+      </c>
+      <c r="D591" t="s">
+        <v>214</v>
+      </c>
+      <c r="E591" t="s">
+        <v>8</v>
+      </c>
+      <c r="F591" t="s">
+        <v>16</v>
+      </c>
+      <c r="G591" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
+        <v>39</v>
+      </c>
+      <c r="B592">
+        <v>1</v>
+      </c>
+      <c r="C592" t="s">
+        <v>209</v>
+      </c>
+      <c r="D592" t="s">
+        <v>4</v>
+      </c>
+      <c r="E592" t="s">
+        <v>8</v>
+      </c>
+      <c r="F592" t="s">
+        <v>16</v>
+      </c>
+      <c r="G592" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="594" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A594" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B594" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="595" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A595" t="s">
+        <v>1</v>
+      </c>
+      <c r="B595" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="596" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A596" t="s">
+        <v>3</v>
+      </c>
+      <c r="B596" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="597" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A597" t="s">
+        <v>5</v>
+      </c>
+      <c r="B597">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A598" t="s">
         <v>6</v>
       </c>
-      <c r="B592" t="s">
+      <c r="B598" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="599" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A599" t="s">
+        <v>7</v>
+      </c>
+      <c r="B599" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="600" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A600" t="s">
+        <v>207</v>
+      </c>
+      <c r="B600" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="601" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A601" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="602" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A602" t="s">
+        <v>11</v>
+      </c>
+      <c r="B602" t="s">
+        <v>12</v>
+      </c>
+      <c r="C602" t="s">
+        <v>199</v>
+      </c>
+      <c r="D602" t="s">
+        <v>3</v>
+      </c>
+      <c r="E602" t="s">
+        <v>7</v>
+      </c>
+      <c r="F602" t="s">
+        <v>13</v>
+      </c>
+      <c r="G602" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="603" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A603" t="s">
+        <v>249</v>
+      </c>
+      <c r="B603">
+        <v>1</v>
+      </c>
+      <c r="C603" t="s">
+        <v>201</v>
+      </c>
+      <c r="D603" t="s">
+        <v>202</v>
+      </c>
+      <c r="E603" t="s">
+        <v>8</v>
+      </c>
+      <c r="F603" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="604" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A604" t="s">
+        <v>164</v>
+      </c>
+      <c r="B604">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="C604" t="s">
+        <v>209</v>
+      </c>
+      <c r="D604" t="s">
+        <v>4</v>
+      </c>
+      <c r="E604" t="s">
+        <v>8</v>
+      </c>
+      <c r="F604" t="s">
+        <v>16</v>
+      </c>
+      <c r="G604" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="605" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A605" t="s">
+        <v>166</v>
+      </c>
+      <c r="B605">
+        <v>0.106</v>
+      </c>
+      <c r="C605" t="s">
+        <v>209</v>
+      </c>
+      <c r="D605" t="s">
+        <v>4</v>
+      </c>
+      <c r="E605" t="s">
+        <v>8</v>
+      </c>
+      <c r="F605" t="s">
+        <v>16</v>
+      </c>
+      <c r="G605" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="607" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A607" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B607" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A593" t="s">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A608" t="s">
+        <v>5</v>
+      </c>
+      <c r="B608">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A609" t="s">
+        <v>6</v>
+      </c>
+      <c r="B609" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A610" t="s">
         <v>13</v>
       </c>
-      <c r="B593" t="s">
+      <c r="B610" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A594" t="s">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A611" t="s">
         <v>7</v>
       </c>
-      <c r="B594" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A595" t="s">
+      <c r="B611" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A612" t="s">
         <v>3</v>
       </c>
-      <c r="B595" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="596" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A596" s="2" t="s">
+      <c r="B612" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A613" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="597" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A597" s="2" t="s">
+    <row r="614" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A614" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B597" s="2" t="s">
+      <c r="B614" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C597" s="2" t="s">
+      <c r="C614" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D597" s="2" t="s">
+      <c r="D614" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E597" s="2" t="s">
+      <c r="E614" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F597" s="2" t="s">
+      <c r="F614" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G597" s="2" t="s">
+      <c r="G614" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H597" s="2" t="s">
+      <c r="H614" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A598" t="s">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A615" t="s">
         <v>250</v>
       </c>
-      <c r="B598">
-        <v>1</v>
-      </c>
-      <c r="C598" t="s">
-        <v>8</v>
-      </c>
-      <c r="D598" t="s">
+      <c r="B615">
+        <v>1</v>
+      </c>
+      <c r="C615" t="s">
+        <v>8</v>
+      </c>
+      <c r="D615" t="s">
         <v>201</v>
       </c>
-      <c r="F598" t="s">
-        <v>4</v>
-      </c>
-      <c r="G598" t="s">
+      <c r="F615" t="s">
+        <v>4</v>
+      </c>
+      <c r="G615" t="s">
         <v>14</v>
       </c>
-      <c r="H598" t="s">
+      <c r="H615" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A599" t="s">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A616" t="s">
         <v>134</v>
       </c>
-      <c r="B599">
+      <c r="B616">
         <v>0.192</v>
       </c>
-      <c r="C599" t="s">
-        <v>8</v>
-      </c>
-      <c r="D599" t="s">
+      <c r="C616" t="s">
+        <v>8</v>
+      </c>
+      <c r="D616" t="s">
         <v>217</v>
       </c>
-      <c r="E599" t="s">
+      <c r="E616" t="s">
         <v>139</v>
       </c>
-      <c r="G599" t="s">
+      <c r="G616" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A600" t="s">
-        <v>45</v>
-      </c>
-      <c r="B600">
-        <v>2.88</v>
-      </c>
-      <c r="C600" t="s">
-        <v>46</v>
-      </c>
-      <c r="D600" t="s">
-        <v>209</v>
-      </c>
-      <c r="F600" t="s">
-        <v>4</v>
-      </c>
-      <c r="G600" t="s">
-        <v>16</v>
-      </c>
-      <c r="H600" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A601" t="s">
-        <v>255</v>
-      </c>
-      <c r="B601">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="C601" t="s">
-        <v>8</v>
-      </c>
-      <c r="D601" t="s">
-        <v>209</v>
-      </c>
-      <c r="F601" t="s">
-        <v>4</v>
-      </c>
-      <c r="G601" t="s">
-        <v>16</v>
-      </c>
-      <c r="H601" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A602" t="s">
-        <v>251</v>
-      </c>
-      <c r="B602">
-        <v>0.87</v>
-      </c>
-      <c r="C602" t="s">
-        <v>8</v>
-      </c>
-      <c r="D602" t="s">
-        <v>209</v>
-      </c>
-      <c r="F602" t="s">
-        <v>96</v>
-      </c>
-      <c r="G602" t="s">
-        <v>16</v>
-      </c>
-      <c r="H602" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="604" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A604" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B604" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A605" t="s">
-        <v>1</v>
-      </c>
-      <c r="B605" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A606" t="s">
-        <v>3</v>
-      </c>
-      <c r="B606" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A607" t="s">
-        <v>5</v>
-      </c>
-      <c r="B607">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A608" t="s">
-        <v>6</v>
-      </c>
-      <c r="B608" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A609" t="s">
-        <v>7</v>
-      </c>
-      <c r="B609" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A610" t="s">
-        <v>9</v>
-      </c>
-      <c r="B610" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A611" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A612" t="s">
-        <v>11</v>
-      </c>
-      <c r="B612" t="s">
-        <v>12</v>
-      </c>
-      <c r="C612" t="s">
-        <v>7</v>
-      </c>
-      <c r="D612" t="s">
-        <v>3</v>
-      </c>
-      <c r="E612" t="s">
-        <v>13</v>
-      </c>
-      <c r="F612" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A613" t="s">
-        <v>198</v>
-      </c>
-      <c r="B613">
-        <v>1</v>
-      </c>
-      <c r="C613" t="s">
-        <v>8</v>
-      </c>
-      <c r="D613" t="s">
-        <v>4</v>
-      </c>
-      <c r="E613" t="s">
-        <v>14</v>
-      </c>
-      <c r="F613" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A614" t="s">
-        <v>124</v>
-      </c>
-      <c r="B614" s="3">
-        <v>2.7744750000000002E-3</v>
-      </c>
-      <c r="C614" t="s">
-        <v>53</v>
-      </c>
-      <c r="D614" t="s">
-        <v>27</v>
-      </c>
-      <c r="E614" t="s">
-        <v>16</v>
-      </c>
-      <c r="F614" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A615" t="s">
-        <v>55</v>
-      </c>
-      <c r="B615" s="3">
-        <v>5.9188796000000002E-2</v>
-      </c>
-      <c r="C615" t="s">
-        <v>53</v>
-      </c>
-      <c r="D615" t="s">
-        <v>27</v>
-      </c>
-      <c r="E615" t="s">
-        <v>16</v>
-      </c>
-      <c r="F615" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A616" t="s">
-        <v>61</v>
-      </c>
-      <c r="B616" s="3">
-        <v>0.20568106799999999</v>
-      </c>
-      <c r="C616" t="s">
-        <v>53</v>
-      </c>
-      <c r="D616" t="s">
-        <v>4</v>
-      </c>
-      <c r="E616" t="s">
-        <v>16</v>
-      </c>
-      <c r="F616" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>45</v>
       </c>
-      <c r="B617" s="3">
-        <v>0.440587837837838</v>
+      <c r="B617">
+        <v>2.88</v>
       </c>
       <c r="C617" t="s">
         <v>46</v>
       </c>
       <c r="D617" t="s">
-        <v>4</v>
-      </c>
-      <c r="E617" t="s">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="F617" t="s">
+        <v>4</v>
+      </c>
+      <c r="G617" t="s">
+        <v>16</v>
+      </c>
+      <c r="H617" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
-        <v>125</v>
-      </c>
-      <c r="B618" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>255</v>
+      </c>
+      <c r="B618">
+        <v>0.33800000000000002</v>
       </c>
       <c r="C618" t="s">
         <v>8</v>
       </c>
       <c r="D618" t="s">
-        <v>4</v>
-      </c>
-      <c r="E618" t="s">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="F618" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="G618" t="s">
+        <v>16</v>
+      </c>
+      <c r="H618" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
-        <v>127</v>
-      </c>
-      <c r="B619" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>251</v>
+      </c>
+      <c r="B619">
+        <v>0.87</v>
       </c>
       <c r="C619" t="s">
         <v>8</v>
       </c>
       <c r="D619" t="s">
-        <v>4</v>
-      </c>
-      <c r="E619" t="s">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="F619" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A620" t="s">
-        <v>112</v>
-      </c>
-      <c r="B620" s="3">
-        <v>27.8</v>
-      </c>
-      <c r="C620" t="s">
-        <v>113</v>
-      </c>
-      <c r="D620" t="s">
-        <v>27</v>
-      </c>
-      <c r="E620" t="s">
-        <v>16</v>
-      </c>
-      <c r="F620" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A621" t="s">
-        <v>129</v>
-      </c>
-      <c r="B621" s="3">
-        <v>5.5999999999999999E-3</v>
-      </c>
-      <c r="C621" t="s">
-        <v>8</v>
-      </c>
-      <c r="D621" t="s">
-        <v>4</v>
-      </c>
-      <c r="E621" t="s">
-        <v>16</v>
-      </c>
-      <c r="F621" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="G619" t="s">
+        <v>16</v>
+      </c>
+      <c r="H619" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A621" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B621" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>122</v>
-      </c>
-      <c r="B622" s="4">
-        <v>4.0000000000000001E-10</v>
-      </c>
-      <c r="C622" t="s">
-        <v>7</v>
-      </c>
-      <c r="D622" t="s">
-        <v>4</v>
-      </c>
-      <c r="E622" t="s">
-        <v>16</v>
-      </c>
-      <c r="F622" t="s">
-        <v>123</v>
-      </c>
-      <c r="G622" s="4"/>
-    </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="B622" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
-        <v>269</v>
-      </c>
-      <c r="B623" s="3">
-        <v>0.95</v>
-      </c>
-      <c r="C623" t="s">
-        <v>8</v>
-      </c>
-      <c r="D623" t="s">
-        <v>4</v>
-      </c>
-      <c r="E623" t="s">
-        <v>16</v>
-      </c>
-      <c r="F623" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="625" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A625" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B625" s="2" t="s">
-        <v>269</v>
+        <v>3</v>
+      </c>
+      <c r="B623" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A624" t="s">
+        <v>5</v>
+      </c>
+      <c r="B624">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A625" t="s">
+        <v>6</v>
+      </c>
+      <c r="B625" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="626" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B626" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B627" t="s">
-        <v>4</v>
+        <v>268</v>
       </c>
     </row>
     <row r="628" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A628" t="s">
-        <v>5</v>
-      </c>
-      <c r="B628">
-        <v>1</v>
+      <c r="A628" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
+        <v>11</v>
+      </c>
+      <c r="B629" t="s">
+        <v>12</v>
+      </c>
+      <c r="C629" t="s">
+        <v>7</v>
+      </c>
+      <c r="D629" t="s">
+        <v>3</v>
+      </c>
+      <c r="E629" t="s">
+        <v>13</v>
+      </c>
+      <c r="F629" t="s">
         <v>6</v>
-      </c>
-      <c r="B629" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="630" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
-        <v>7</v>
-      </c>
-      <c r="B630" t="s">
-        <v>8</v>
+        <v>198</v>
+      </c>
+      <c r="B630">
+        <v>1</v>
+      </c>
+      <c r="C630" t="s">
+        <v>8</v>
+      </c>
+      <c r="D630" t="s">
+        <v>4</v>
+      </c>
+      <c r="E630" t="s">
+        <v>14</v>
+      </c>
+      <c r="F630" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
-        <v>9</v>
-      </c>
-      <c r="B631" t="s">
-        <v>268</v>
+        <v>124</v>
+      </c>
+      <c r="B631" s="3">
+        <v>2.7744750000000002E-3</v>
+      </c>
+      <c r="C631" t="s">
+        <v>53</v>
+      </c>
+      <c r="D631" t="s">
+        <v>27</v>
+      </c>
+      <c r="E631" t="s">
+        <v>16</v>
+      </c>
+      <c r="F631" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A632" s="1" t="s">
-        <v>10</v>
+      <c r="A632" t="s">
+        <v>55</v>
+      </c>
+      <c r="B632" s="3">
+        <v>5.9188796000000002E-2</v>
+      </c>
+      <c r="C632" t="s">
+        <v>53</v>
+      </c>
+      <c r="D632" t="s">
+        <v>27</v>
+      </c>
+      <c r="E632" t="s">
+        <v>16</v>
+      </c>
+      <c r="F632" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
-        <v>11</v>
-      </c>
-      <c r="B633" t="s">
-        <v>12</v>
+        <v>61</v>
+      </c>
+      <c r="B633" s="3">
+        <v>0.20568106799999999</v>
       </c>
       <c r="C633" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="D633" t="s">
-        <v>131</v>
+        <v>4</v>
       </c>
       <c r="E633" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F633" t="s">
-        <v>13</v>
-      </c>
-      <c r="G633" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
-        <v>269</v>
-      </c>
-      <c r="B634">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="B634" s="3">
+        <v>0.440587837837838</v>
       </c>
       <c r="C634" t="s">
-        <v>8</v>
+        <v>46</v>
+      </c>
+      <c r="D634" t="s">
+        <v>4</v>
       </c>
       <c r="E634" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F634" t="s">
-        <v>14</v>
-      </c>
-      <c r="G634" t="s">
-        <v>269</v>
+        <v>47</v>
       </c>
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B635" s="3">
-        <v>3.2859232000000002E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C635" t="s">
-        <v>53</v>
+        <v>8</v>
+      </c>
+      <c r="D635" t="s">
+        <v>4</v>
       </c>
       <c r="E635" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F635" t="s">
-        <v>16</v>
-      </c>
-      <c r="G635" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B636" s="3">
-        <v>2.6585139999999998E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C636" t="s">
-        <v>53</v>
+        <v>8</v>
+      </c>
+      <c r="D636" t="s">
+        <v>4</v>
       </c>
       <c r="E636" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F636" t="s">
-        <v>16</v>
-      </c>
-      <c r="G636" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="637" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="B637" s="3">
-        <v>6.3697992999999994E-2</v>
+        <v>27.8</v>
       </c>
       <c r="C637" t="s">
-        <v>53</v>
+        <v>113</v>
+      </c>
+      <c r="D637" t="s">
+        <v>27</v>
       </c>
       <c r="E637" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F637" t="s">
-        <v>16</v>
-      </c>
-      <c r="G637" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
     </row>
     <row r="638" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="B638" s="3">
-        <v>2.2225175999999999E-2</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="C638" t="s">
-        <v>53</v>
+        <v>8</v>
+      </c>
+      <c r="D638" t="s">
+        <v>4</v>
       </c>
       <c r="E638" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F638" t="s">
-        <v>16</v>
-      </c>
-      <c r="G638" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
     </row>
     <row r="639" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
-        <v>45</v>
-      </c>
-      <c r="B639" s="3">
-        <v>7.26</v>
+        <v>122</v>
+      </c>
+      <c r="B639" s="4">
+        <v>4.0000000000000001E-10</v>
       </c>
       <c r="C639" t="s">
-        <v>46</v>
+        <v>7</v>
+      </c>
+      <c r="D639" t="s">
+        <v>4</v>
       </c>
       <c r="E639" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F639" t="s">
-        <v>16</v>
-      </c>
-      <c r="G639" t="s">
-        <v>47</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G639" s="4"/>
     </row>
     <row r="640" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B640" s="3">
-        <v>0.25</v>
+        <v>0.95</v>
       </c>
       <c r="C640" t="s">
         <v>8</v>
       </c>
+      <c r="D640" t="s">
+        <v>4</v>
+      </c>
       <c r="E640" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F640" t="s">
-        <v>16</v>
-      </c>
-      <c r="G640" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A641" t="s">
-        <v>272</v>
-      </c>
-      <c r="B641" s="3">
-        <v>0.95</v>
-      </c>
-      <c r="C641" t="s">
-        <v>8</v>
-      </c>
-      <c r="E641" t="s">
-        <v>4</v>
-      </c>
-      <c r="F641" t="s">
-        <v>16</v>
-      </c>
-      <c r="G641" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A642" t="s">
-        <v>122</v>
-      </c>
-      <c r="B642" s="4">
-        <v>7.4100000000000003E-10</v>
-      </c>
-      <c r="C642" t="s">
-        <v>7</v>
-      </c>
-      <c r="E642" t="s">
-        <v>4</v>
-      </c>
-      <c r="F642" t="s">
-        <v>16</v>
-      </c>
-      <c r="G642" t="s">
-        <v>123</v>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="642" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A642" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B642" s="2" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="643" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
-        <v>137</v>
-      </c>
-      <c r="B643" s="3">
-        <v>1.9562E-4</v>
-      </c>
-      <c r="C643" t="s">
-        <v>138</v>
-      </c>
-      <c r="D643" t="s">
-        <v>139</v>
-      </c>
-      <c r="F643" t="s">
-        <v>136</v>
+        <v>1</v>
+      </c>
+      <c r="B643" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G644" s="4"/>
-    </row>
-    <row r="645" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A645" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B645" s="2" t="s">
-        <v>272</v>
+      <c r="A644" t="s">
+        <v>3</v>
+      </c>
+      <c r="B644" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="645" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A645" t="s">
+        <v>5</v>
+      </c>
+      <c r="B645">
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B646" t="s">
-        <v>2</v>
+        <v>269</v>
       </c>
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B647" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
-        <v>5</v>
-      </c>
-      <c r="B648">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="B648" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A649" t="s">
-        <v>6</v>
-      </c>
-      <c r="B649" t="s">
-        <v>272</v>
+      <c r="A649" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="650" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
+        <v>11</v>
+      </c>
+      <c r="B650" t="s">
+        <v>12</v>
+      </c>
+      <c r="C650" t="s">
         <v>7</v>
       </c>
-      <c r="B650" t="s">
-        <v>8</v>
+      <c r="D650" t="s">
+        <v>131</v>
+      </c>
+      <c r="E650" t="s">
+        <v>3</v>
+      </c>
+      <c r="F650" t="s">
+        <v>13</v>
+      </c>
+      <c r="G650" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="651" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
-        <v>9</v>
-      </c>
-      <c r="B651" t="s">
-        <v>268</v>
+        <v>269</v>
+      </c>
+      <c r="B651">
+        <v>1</v>
+      </c>
+      <c r="C651" t="s">
+        <v>8</v>
+      </c>
+      <c r="E651" t="s">
+        <v>4</v>
+      </c>
+      <c r="F651" t="s">
+        <v>14</v>
+      </c>
+      <c r="G651" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="652" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A652" s="1" t="s">
-        <v>10</v>
+      <c r="A652" t="s">
+        <v>124</v>
+      </c>
+      <c r="B652" s="3">
+        <v>3.2859232000000002E-2</v>
+      </c>
+      <c r="C652" t="s">
+        <v>53</v>
+      </c>
+      <c r="E652" t="s">
+        <v>27</v>
+      </c>
+      <c r="F652" t="s">
+        <v>16</v>
+      </c>
+      <c r="G652" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="653" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
-        <v>11</v>
-      </c>
-      <c r="B653" t="s">
-        <v>12</v>
+        <v>132</v>
+      </c>
+      <c r="B653" s="3">
+        <v>2.6585139999999998E-3</v>
       </c>
       <c r="C653" t="s">
-        <v>7</v>
-      </c>
-      <c r="D653" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="E653" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F653" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G653" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
     </row>
     <row r="654" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
-        <v>272</v>
-      </c>
-      <c r="B654">
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="B654" s="3">
+        <v>6.3697992999999994E-2</v>
       </c>
       <c r="C654" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E654" t="s">
         <v>4</v>
       </c>
       <c r="F654" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G654" t="s">
-        <v>272</v>
+        <v>62</v>
       </c>
     </row>
     <row r="655" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="B655" s="3">
-        <v>2.6585139999999998E-3</v>
+        <v>2.2225175999999999E-2</v>
       </c>
       <c r="C655" t="s">
         <v>53</v>
@@ -10713,58 +10741,58 @@
         <v>16</v>
       </c>
       <c r="G655" t="s">
-        <v>133</v>
+        <v>56</v>
       </c>
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B656" s="3">
-        <v>2.2225175999999999E-2</v>
+        <v>7.26</v>
       </c>
       <c r="C656" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E656" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F656" t="s">
         <v>16</v>
       </c>
       <c r="G656" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
-        <v>124</v>
+        <v>270</v>
       </c>
       <c r="B657" s="3">
-        <v>3.2859232000000002E-2</v>
+        <v>0.25</v>
       </c>
       <c r="C657" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="E657" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F657" t="s">
         <v>16</v>
       </c>
       <c r="G657" t="s">
-        <v>60</v>
+        <v>271</v>
       </c>
     </row>
     <row r="658" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
-        <v>61</v>
+        <v>272</v>
       </c>
       <c r="B658" s="3">
-        <v>6.3697992999999994E-2</v>
+        <v>0.95</v>
       </c>
       <c r="C658" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="E658" t="s">
         <v>4</v>
@@ -10773,205 +10801,429 @@
         <v>16</v>
       </c>
       <c r="G658" t="s">
-        <v>62</v>
+        <v>272</v>
       </c>
     </row>
     <row r="659" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
-        <v>112</v>
-      </c>
-      <c r="B659" s="3">
-        <v>39.299999999999997</v>
+        <v>122</v>
+      </c>
+      <c r="B659" s="4">
+        <v>7.4100000000000003E-10</v>
       </c>
       <c r="C659" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="E659" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F659" t="s">
         <v>16</v>
       </c>
       <c r="G659" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="660" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B660" s="3">
-        <v>0.85814000000000001</v>
+        <v>1.9562E-4</v>
       </c>
       <c r="C660" t="s">
-        <v>8</v>
-      </c>
-      <c r="E660" t="s">
-        <v>4</v>
+        <v>138</v>
+      </c>
+      <c r="D660" t="s">
+        <v>139</v>
       </c>
       <c r="F660" t="s">
-        <v>16</v>
-      </c>
-      <c r="G660" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="661" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A661" t="s">
-        <v>254</v>
-      </c>
-      <c r="B661" s="3">
-        <v>0.25081999999999999</v>
-      </c>
-      <c r="C661" t="s">
-        <v>8</v>
-      </c>
-      <c r="E661" t="s">
-        <v>140</v>
-      </c>
-      <c r="F661" t="s">
-        <v>16</v>
-      </c>
-      <c r="G661" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A662" t="s">
-        <v>144</v>
-      </c>
-      <c r="B662" s="3">
-        <v>1.3120000000000001</v>
-      </c>
-      <c r="C662" t="s">
-        <v>8</v>
-      </c>
-      <c r="E662" t="s">
-        <v>4</v>
-      </c>
-      <c r="F662" t="s">
-        <v>16</v>
-      </c>
-      <c r="G662" t="s">
-        <v>145</v>
+      <c r="G661" s="4"/>
+    </row>
+    <row r="662" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A662" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B662" s="2" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>273</v>
-      </c>
-      <c r="B663" s="3">
-        <v>8.6822999999999997E-2</v>
-      </c>
-      <c r="C663" t="s">
-        <v>8</v>
-      </c>
-      <c r="E663" t="s">
-        <v>27</v>
-      </c>
-      <c r="F663" t="s">
-        <v>16</v>
-      </c>
-      <c r="G663" t="s">
-        <v>274</v>
+        <v>1</v>
+      </c>
+      <c r="B663" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
-        <v>148</v>
-      </c>
-      <c r="B664" s="3">
-        <v>5.8393000000000004E-3</v>
-      </c>
-      <c r="C664" t="s">
-        <v>8</v>
-      </c>
-      <c r="E664" t="s">
-        <v>140</v>
-      </c>
-      <c r="F664" t="s">
-        <v>16</v>
-      </c>
-      <c r="G664" t="s">
-        <v>149</v>
+        <v>3</v>
+      </c>
+      <c r="B664" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="665" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
-        <v>122</v>
-      </c>
-      <c r="B665" s="3">
-        <v>7.1940002862808998E-10</v>
-      </c>
-      <c r="C665" t="s">
-        <v>7</v>
-      </c>
-      <c r="E665" t="s">
-        <v>4</v>
-      </c>
-      <c r="F665" t="s">
-        <v>16</v>
-      </c>
-      <c r="G665" t="s">
-        <v>123</v>
+        <v>5</v>
+      </c>
+      <c r="B665">
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
-        <v>150</v>
-      </c>
-      <c r="B666" s="3">
-        <v>-6.1963397318955398E-4</v>
-      </c>
-      <c r="C666" t="s">
-        <v>138</v>
-      </c>
-      <c r="E666" t="s">
-        <v>27</v>
-      </c>
-      <c r="F666" t="s">
-        <v>16</v>
-      </c>
-      <c r="G666" t="s">
-        <v>151</v>
+        <v>6</v>
+      </c>
+      <c r="B666" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="667" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>152</v>
-      </c>
-      <c r="B667" s="3">
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="C667" t="s">
-        <v>8</v>
-      </c>
-      <c r="D667" t="s">
-        <v>135</v>
-      </c>
-      <c r="F667" t="s">
-        <v>136</v>
+        <v>7</v>
+      </c>
+      <c r="B667" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="668" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
+        <v>9</v>
+      </c>
+      <c r="B668" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="669" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A669" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="670" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A670" t="s">
+        <v>11</v>
+      </c>
+      <c r="B670" t="s">
+        <v>12</v>
+      </c>
+      <c r="C670" t="s">
+        <v>7</v>
+      </c>
+      <c r="D670" t="s">
+        <v>131</v>
+      </c>
+      <c r="E670" t="s">
+        <v>3</v>
+      </c>
+      <c r="F670" t="s">
+        <v>13</v>
+      </c>
+      <c r="G670" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="671" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A671" t="s">
+        <v>272</v>
+      </c>
+      <c r="B671">
+        <v>1</v>
+      </c>
+      <c r="C671" t="s">
+        <v>8</v>
+      </c>
+      <c r="E671" t="s">
+        <v>4</v>
+      </c>
+      <c r="F671" t="s">
+        <v>14</v>
+      </c>
+      <c r="G671" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="672" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A672" t="s">
+        <v>132</v>
+      </c>
+      <c r="B672" s="3">
+        <v>2.6585139999999998E-3</v>
+      </c>
+      <c r="C672" t="s">
+        <v>53</v>
+      </c>
+      <c r="E672" t="s">
+        <v>27</v>
+      </c>
+      <c r="F672" t="s">
+        <v>16</v>
+      </c>
+      <c r="G672" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="673" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A673" t="s">
+        <v>55</v>
+      </c>
+      <c r="B673" s="3">
+        <v>2.2225175999999999E-2</v>
+      </c>
+      <c r="C673" t="s">
+        <v>53</v>
+      </c>
+      <c r="E673" t="s">
+        <v>27</v>
+      </c>
+      <c r="F673" t="s">
+        <v>16</v>
+      </c>
+      <c r="G673" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="674" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A674" t="s">
+        <v>124</v>
+      </c>
+      <c r="B674" s="3">
+        <v>3.2859232000000002E-2</v>
+      </c>
+      <c r="C674" t="s">
+        <v>53</v>
+      </c>
+      <c r="E674" t="s">
+        <v>27</v>
+      </c>
+      <c r="F674" t="s">
+        <v>16</v>
+      </c>
+      <c r="G674" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="675" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A675" t="s">
+        <v>61</v>
+      </c>
+      <c r="B675" s="3">
+        <v>6.3697992999999994E-2</v>
+      </c>
+      <c r="C675" t="s">
+        <v>53</v>
+      </c>
+      <c r="E675" t="s">
+        <v>4</v>
+      </c>
+      <c r="F675" t="s">
+        <v>16</v>
+      </c>
+      <c r="G675" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="676" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A676" t="s">
+        <v>112</v>
+      </c>
+      <c r="B676" s="3">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="C676" t="s">
+        <v>113</v>
+      </c>
+      <c r="E676" t="s">
+        <v>27</v>
+      </c>
+      <c r="F676" t="s">
+        <v>16</v>
+      </c>
+      <c r="G676" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="677" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A677" t="s">
+        <v>141</v>
+      </c>
+      <c r="B677" s="3">
+        <v>0.85814000000000001</v>
+      </c>
+      <c r="C677" t="s">
+        <v>8</v>
+      </c>
+      <c r="E677" t="s">
+        <v>4</v>
+      </c>
+      <c r="F677" t="s">
+        <v>16</v>
+      </c>
+      <c r="G677" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="678" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A678" t="s">
+        <v>254</v>
+      </c>
+      <c r="B678" s="3">
+        <v>0.25081999999999999</v>
+      </c>
+      <c r="C678" t="s">
+        <v>8</v>
+      </c>
+      <c r="E678" t="s">
+        <v>140</v>
+      </c>
+      <c r="F678" t="s">
+        <v>16</v>
+      </c>
+      <c r="G678" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="679" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A679" t="s">
+        <v>144</v>
+      </c>
+      <c r="B679" s="3">
+        <v>1.3120000000000001</v>
+      </c>
+      <c r="C679" t="s">
+        <v>8</v>
+      </c>
+      <c r="E679" t="s">
+        <v>4</v>
+      </c>
+      <c r="F679" t="s">
+        <v>16</v>
+      </c>
+      <c r="G679" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="680" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A680" t="s">
+        <v>273</v>
+      </c>
+      <c r="B680" s="3">
+        <v>8.6822999999999997E-2</v>
+      </c>
+      <c r="C680" t="s">
+        <v>8</v>
+      </c>
+      <c r="E680" t="s">
+        <v>27</v>
+      </c>
+      <c r="F680" t="s">
+        <v>16</v>
+      </c>
+      <c r="G680" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="681" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A681" t="s">
+        <v>148</v>
+      </c>
+      <c r="B681" s="3">
+        <v>5.8393000000000004E-3</v>
+      </c>
+      <c r="C681" t="s">
+        <v>8</v>
+      </c>
+      <c r="E681" t="s">
+        <v>140</v>
+      </c>
+      <c r="F681" t="s">
+        <v>16</v>
+      </c>
+      <c r="G681" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="682" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A682" t="s">
+        <v>122</v>
+      </c>
+      <c r="B682" s="3">
+        <v>7.1940002862808998E-10</v>
+      </c>
+      <c r="C682" t="s">
+        <v>7</v>
+      </c>
+      <c r="E682" t="s">
+        <v>4</v>
+      </c>
+      <c r="F682" t="s">
+        <v>16</v>
+      </c>
+      <c r="G682" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="683" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A683" t="s">
+        <v>150</v>
+      </c>
+      <c r="B683" s="3">
+        <v>-6.1963397318955398E-4</v>
+      </c>
+      <c r="C683" t="s">
+        <v>138</v>
+      </c>
+      <c r="E683" t="s">
+        <v>27</v>
+      </c>
+      <c r="F683" t="s">
+        <v>16</v>
+      </c>
+      <c r="G683" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="684" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A684" t="s">
+        <v>152</v>
+      </c>
+      <c r="B684" s="3">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="C684" t="s">
+        <v>8</v>
+      </c>
+      <c r="D684" t="s">
+        <v>135</v>
+      </c>
+      <c r="F684" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="685" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A685" t="s">
         <v>153</v>
       </c>
-      <c r="B668" s="3">
+      <c r="B685" s="3">
         <v>6.1963397318955398E-4</v>
       </c>
-      <c r="C668" t="s">
+      <c r="C685" t="s">
         <v>138</v>
       </c>
-      <c r="D668" t="s">
+      <c r="D685" t="s">
         <v>154</v>
       </c>
-      <c r="F668" t="s">
+      <c r="F685" t="s">
         <v>136</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O603" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O620" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-batteries-NMC622-LTO.xlsx
+++ b/premise/data/additional_inventories/lci-batteries-NMC622-LTO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4EBB1C-74AB-D140-8871-E4E5DDA1E7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1036FE3-1515-AB4D-AFF2-DCCB5993DC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35900" yWindow="-940" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Battery - NMC" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3248" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3248" uniqueCount="307">
   <si>
     <t>Activity</t>
   </si>
@@ -972,6 +972,9 @@
   </si>
   <si>
     <t>anode, silicon coated graphite, for Li-ion battery</t>
+  </si>
+  <si>
+    <t>market for anode, graphite, for Li-ion battery</t>
   </si>
 </sst>
 </file>
@@ -982,7 +985,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1048,6 +1051,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1088,7 +1098,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1373,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X898"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A358" workbookViewId="0">
+      <selection activeCell="A373" sqref="A373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6070,7 +6080,7 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B327" s="4">
         <v>0.2</v>
@@ -6079,13 +6089,13 @@
         <v>8</v>
       </c>
       <c r="D327" t="s">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="E327" t="s">
         <v>16</v>
       </c>
-      <c r="F327" t="s">
-        <v>305</v>
+      <c r="F327" s="14" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
@@ -6491,7 +6501,7 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B354" s="4">
         <v>0.2</v>
@@ -6500,13 +6510,13 @@
         <v>8</v>
       </c>
       <c r="D354" t="s">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="E354" t="s">
         <v>16</v>
       </c>
-      <c r="F354" t="s">
-        <v>305</v>
+      <c r="F354" s="14" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.2">
@@ -6801,7 +6811,7 @@
       <c r="A374" t="s">
         <v>9</v>
       </c>
-      <c r="B374" s="14" t="s">
+      <c r="B374" t="s">
         <v>303</v>
       </c>
     </row>
@@ -12908,7 +12918,7 @@
     </row>
     <row r="790" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B790">
         <v>1.7192469698272154E-2</v>
@@ -12917,13 +12927,13 @@
         <v>207</v>
       </c>
       <c r="D790" t="s">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="E790" t="s">
         <v>8</v>
       </c>
       <c r="F790" t="s">
-        <v>305</v>
+        <v>16</v>
       </c>
       <c r="G790" t="s">
         <v>115</v>

--- a/premise/data/additional_inventories/lci-batteries-NMC622-LTO.xlsx
+++ b/premise/data/additional_inventories/lci-batteries-NMC622-LTO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BB0547-B9D7-4541-A3B0-920A1AD4D21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D879C8EA-1E11-2D42-A563-9103074F4267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35900" yWindow="-940" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Battery - NMC" sheetId="1" r:id="rId1"/>
@@ -1403,8 +1403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X979"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
-      <selection activeCell="A270" sqref="A270"/>
+    <sheetView tabSelected="1" topLeftCell="A673" workbookViewId="0">
+      <selection activeCell="A696" sqref="A696"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5730,7 +5730,7 @@
         <v>8</v>
       </c>
       <c r="D297" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="E297" t="s">
         <v>16</v>
@@ -6380,7 +6380,7 @@
         <v>8</v>
       </c>
       <c r="D340" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="E340" t="s">
         <v>16</v>
@@ -7030,7 +7030,7 @@
         <v>8</v>
       </c>
       <c r="D383" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="E383" t="s">
         <v>16</v>
